--- a/biology/Botanique/Liste_des_arbres_au_Québec/Liste_des_arbres_au_Québec.xlsx
+++ b/biology/Botanique/Liste_des_arbres_au_Québec/Liste_des_arbres_au_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_au_Qu%C3%A9bec</t>
+          <t>Liste_des_arbres_au_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste recense les arbres au Québec. Elle comporte 140 espèces d'arbres, dont 99 indigènes, 40 introduites et une extirpée.
-La liste se base sur deux sources : Les arbres du Canada, 2017 de John Laird Farrar[1], et VASCAN, la Base de données des plantes vasculaires du Canada[2].  Pour chaque espèce on trouve le nom binomial suivi de la citation d'auteurs, le nom vulgaire et son statut dans la province :  indigène, introduit ou extirpé.  Les noms vulgaires et le statut proviennent de VASCAN.  Le statut – indigène ou introduit – concerne spécifiquement le territoire du Québec : une espèce peut être introduite dans la province, mais indigène ailleurs au Canada. Par introduit, on désigne un « taxon établi (naturalisé) dans une région autre que son aire d'origine, après y avoir été introduit délibérément ou accidentellement dans le cadre d'activités humaines »[2].
+La liste se base sur deux sources : Les arbres du Canada, 2017 de John Laird Farrar, et VASCAN, la Base de données des plantes vasculaires du Canada.  Pour chaque espèce on trouve le nom binomial suivi de la citation d'auteurs, le nom vulgaire et son statut dans la province :  indigène, introduit ou extirpé.  Les noms vulgaires et le statut proviennent de VASCAN.  Le statut – indigène ou introduit – concerne spécifiquement le territoire du Québec : une espèce peut être introduite dans la province, mais indigène ailleurs au Canada. Par introduit, on désigne un « taxon établi (naturalisé) dans une région autre que son aire d'origine, après y avoir été introduit délibérément ou accidentellement dans le cadre d'activités humaines ».
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_au_Qu%C3%A9bec</t>
+          <t>Liste_des_arbres_au_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Famille Cupressaceae
-Juniperus communis L., 1753  / Genévrier commun  /  Indigène
+          <t>Famille Cupressaceae</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Juniperus communis L., 1753  / Genévrier commun  /  Indigène
 Juniperus horizontalis Moench, 1794  / Genévrier horizontal /  Indigène
 Juniperus virginiana  L., 1753  / Genévrier de Virginie /  Indigène
-Thuja occidentalis L., 1753  / Thuya occidental /  Indigène
-Famille Pinaceae
-Pinus strobus L., 1753  / Pin blanc /  Indigène
+Thuja occidentalis L., 1753  / Thuya occidental /  Indigène</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ordre Pinales</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Famille Pinaceae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pinus strobus L., 1753  / Pin blanc /  Indigène
 Pinus rigida Mill., 1768  / Pin rigide /  Indigène
 Pinus resinosa Aiton, 1789  / Pin rouge /  Indigène
 Pinus banksiana Lamb., 1803  / Pin gris /  Indigène
@@ -539,34 +590,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Ordre Sapindales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Famille Sapindaceae
-Acer saccharum Marsh., 1785  / Érable à sucre /  Indigène
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Famille Sapindaceae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Acer saccharum Marsh., 1785  / Érable à sucre /  Indigène
 Acer nigrum L., 1753  / Érable noir /  Indigène
 Acer rubrum L., 1753  / Érable rouge /  Indigène
 Acer saccharinum L., 1753  / Érable argenté /  Indigène
@@ -576,81 +632,193 @@
 Acer platanoides L., 1753  / Érable de Norvège /  Introduit
 Acer ginnala (Maxim.) Wesm., 1890  / Érable de l'Amour /  Introduit
 Aesculus hippocastanum L., 1753  / Marronnier d’Inde /  Introduit
-Phellodendron amurense Rupr., 1857  / Phellodendron de l'Amour /  Introduit
-Famille Rutaceae
-Zanthoxylum americanum Mill., 1768  / Clavalier d'Amérique /  Indigène
-Ptelea trifoliata L. (1753)  / Ptéléa trifolié /  Introduit
-Famille Anacardiaceae
-Rhus glabra L.  / Sumac glabre / Extirpé
+Phellodendron amurense Rupr., 1857  / Phellodendron de l'Amour /  Introduit</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ordre Sapindales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Famille Rutaceae</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Zanthoxylum americanum Mill., 1768  / Clavalier d'Amérique /  Indigène
+Ptelea trifoliata L. (1753)  / Ptéléa trifolié /  Introduit</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ordre Sapindales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Famille Anacardiaceae</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Rhus glabra L.  / Sumac glabre / Extirpé
 Rhus typhina L., 1756  / Sumac vinaigrier /  Indigène
-Toxicodendron vernix Stokes F.Barkley  / Sumac à vernis /  Indigène
-Famille Simaroubaceae
-Ailanthus altissima (Mill.) Swingle, 1916  / Ailante glanduleux /  Introduit</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Toxicodendron vernix Stokes F.Barkley  / Sumac à vernis /  Indigène</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ordre Sapindales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Famille Simaroubaceae</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ailanthus altissima (Mill.) Swingle, 1916  / Ailante glanduleux /  Introduit</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Ordre Lamiales ou Scrophulariales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Famille Oleaceae
-Fraxinus americana L., 1753  / Frêne blanc /  Indigène
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Famille Oleaceae</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Fraxinus americana L., 1753  / Frêne blanc /  Indigène
 Fraxinus pennsylvanica Marshall  / Frêne rouge /  Indigène
 Fraxinus nigra Marshall, 1785  / Frêne noir /  Indigène
 Syringa vulgaris Linné, 1753  / Lilas commun /  Introduit</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Ordre Dipsacales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Famille Caprifoliaceae
-Sambucus canadensis L., 1753  / Sureau blanc /  Indigène
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Famille Caprifoliaceae</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sambucus canadensis L., 1753  / Sureau blanc /  Indigène
 Sambucus racemosa L., 1753  / Sureau rouge /  Indigène
 Viburnum lentago L., 1753  / Viorne flexible /  Indigène
 Viburnum opulus L., 1753  / Viorne obier /  Introduit
@@ -660,134 +828,188 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Ordre Cornales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Famille Cornaceae
-Cornus alternifolia L., 1758  / Cornouiller à feuilles alternes /  Indigène</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Famille Cornaceae</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cornus alternifolia L., 1758  / Cornouiller à feuilles alternes /  Indigène</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Ordre Celastrales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Famille Celastraceae
-Euonymus europaeus L. 1753  / Fusain d'Europe /  Introduit
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Famille Celastraceae</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Euonymus europaeus L. 1753  / Fusain d'Europe /  Introduit
 Euonymus alatus (Thunb.) Siebold  / Fusain ailé /  Introduit</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Ordre Gentianales</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Famille Rubiaceae
-Cephalanthus occidentalis L., 1753  / Céphalanthe occidental /  Indigène</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Famille Rubiaceae</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Cephalanthus occidentalis L., 1753  / Céphalanthe occidental /  Indigène</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Ordre Rosales</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Famille Elaeagnaceae
-Shepherdia argentea (Pursh) Nutt., 1818  / Shépherdie argentée /  Introduit
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Famille Elaeagnaceae</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Shepherdia argentea (Pursh) Nutt., 1818  / Shépherdie argentée /  Introduit
 Shepherdia canadensis (L.)  Nutt.  / Shépherdie du Canada /  Indigène
 Hippophae rhamnoides L., 1753  / Argousier faux-nerprun /  Introduit
 Elaeagnus angustifolia L., 1753  / Olivier de Bohême /  Introduit
-Elaeagnus commutata Bernhardi ex Rydberg, 1917  / Chalef argenté /  Indigène
-Famille Rosaceae
-Sorbus decora C.K.Schneid.  / Sorbier plaisant /  Indigène
+Elaeagnus commutata Bernhardi ex Rydberg, 1917  / Chalef argenté /  Indigène</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Ordre Rosales</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Famille Rosaceae</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Sorbus decora C.K.Schneid.  / Sorbier plaisant /  Indigène
 Sorbus americana Marsh., 1785  / Sorbier d'Amérique /  Indigène
 Sorbus aucuparia L., 1753  / Sorbier des oiseleurs /  Introduit
 Amelanchier arborea (F.Michx.) Fernald, 1941  / Amélanchier arborescent /  Indigène
@@ -812,102 +1034,151 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Ordre Juglandales</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Famille Juglandaceae
-Juglans cinerea L., 1759  / Noyer cendré /  Indigène
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Famille Juglandaceae</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Juglans cinerea L., 1759  / Noyer cendré /  Indigène
 Juglans nigra L., 1753  / Noyer noir /  Introduit
 Carya ovata (Mill.) K.Koch, 1869  / Caryer ovale /  Indigène
 Carya cordiformis (Wangenh.) K.Koch, 1869  / Caryer cordiforme /  Indigène</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Ordre Fabales</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Famille Fabaceae
-Robinia pseudoacacia L., 1753  / Robinier faux-acacia /  Introduit
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Famille Fabaceae</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Robinia pseudoacacia L., 1753  / Robinier faux-acacia /  Introduit
 Caragana arborescens Fabr.  / Caragana arborescent /  Introduit</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Ordre Urticales</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Famille Moraceae
-Morus alba L., 1753  / Mûrier blanc /  Introduit
-Famille Ulmaceae
-Ulmus americana L., 1753  / Orme d'Amérique /  Indigène
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Famille Moraceae</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Morus alba L., 1753  / Mûrier blanc /  Introduit</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Ordre Urticales</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Famille Ulmaceae</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Ulmus americana L., 1753  / Orme d'Amérique /  Indigène
 Ulmus thomasii Sarg., 1902  / Orme liège /  Indigène
 Ulmus rubra Muhl., 1793  / Orme rouge /  Indigène
 Ulmus pumila L.  / Orme de Sibérie /  Introduit
@@ -915,71 +1186,115 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Ordre Hamamelidales</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Famille Platanaceae
-Platanus occidentalis L., 1753  / Platane occidental /  Indigène</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Famille Platanaceae</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Platanus occidentalis L., 1753  / Platane occidental /  Indigène</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Ordre Fagales</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Famille Fagaceae
-Quercus rubra L., 1753  / Chêne rouge d'Amérique /  Indigène
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Famille Fagaceae</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Quercus rubra L., 1753  / Chêne rouge d'Amérique /  Indigène
 Quercus alba L., 1753  / Chêne blanc /  Indigène
 Quercus macrocarpa Michx.  / Chêne à gros fruits /  Indigène
 Quercus bicolor Willd., 1801  / Chêne bicolore /  Indigène
-Fagus grandifolia Ehrh., 1788  / Hêtre à grandes feuilles /  Indigène
-Famille Betulaceae
-Betula papyrifera Marshall, 1785  / Bouleau à papier /  Indigène
+Fagus grandifolia Ehrh., 1788  / Hêtre à grandes feuilles /  Indigène</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Ordre Fagales</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Famille Betulaceae</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Betula papyrifera Marshall, 1785  / Bouleau à papier /  Indigène
 Betula cordifolia Regel, 1861  / Bouleau à feuilles cordées /  Indigène
 Betula ×caerulea-grandis Blanchard / Bouleau bleu /  Indigène
 Betula populifolia Marshall, 1785  / Bouleau gris /  Indigène
@@ -994,160 +1309,185 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Ordre Hamamelidales</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Famille Hamamelidaceae
-Hamamelis virginiana L., 1753  / Hamamélis de Virginie /  Indigène</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Famille Hamamelidaceae</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Hamamelis virginiana L., 1753  / Hamamélis de Virginie /  Indigène</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Ordre Celastrales</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Famille Aquifoliaceae
-Ilex verticillata (L.) A.Gray  / Houx verticillé /  Indigène
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Famille Aquifoliaceae</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Ilex verticillata (L.) A.Gray  / Houx verticillé /  Indigène
 Ilex mucronata (L.) M.Powell, Savol. &amp; S.Andrews, 2000  / Némopanthe mucroné /  Indigène</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Ordre Rhamnales</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Famille Rhamnaceae
-Rhamnus cathartica L., 1753  / Nerprun cathartique /  Introduit
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Famille Rhamnaceae</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Rhamnus cathartica L., 1753  / Nerprun cathartique /  Introduit
 Frangula alnus Mill., 1768  / Nerprun bourdaine /  Introduit</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Ordre Malvales</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Famille Tiliaceae
-Tilia americana L., 1753  / Tilleul d'Amérique /  Indigène</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Famille Tiliaceae</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Tilia americana L., 1753  / Tilleul d'Amérique /  Indigène</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_au_Québec</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Ordre Salicales</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Famille Saliceae
-Salix amygdaloides Andersson  / Saule à feuilles de pêcher /  Indigène
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Famille Saliceae</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Salix amygdaloides Andersson  / Saule à feuilles de pêcher /  Indigène
 Salix bebbiana Sarg., 1895  / Saule de Bebb /  Indigène
 Salix arbusculoides Andersson  / Saule arbustif /  Indigène
 Salix discolor Muhl.  / Saule discolore /  Indigène
